--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3983581.668590592</v>
+        <v>3979569.058576599</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>159.0052957619201</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>79.76470074482809</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.05378178251563</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>72.0880274467719</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>136.4159137733192</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>40.12741312164625</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.682695777305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.2063103874222</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>251.1382003403126</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>148.615183167112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.99016754794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881302</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>166.5451136812784</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.2043849316213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>281.5403368976804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>127.1562738804005</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>127.1562738804004</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
-        <v>238.8507768231686</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>62.8430069829285</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>52.57516893522976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.41770597126702</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
-        <v>111.6910841413357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
-        <v>210.704362751057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>114.2935157990527</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855438</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>584.6815723082757</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T4" t="n">
-        <v>609.2899331452389</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U4" t="n">
-        <v>609.2899331452389</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V4" t="n">
-        <v>609.2899331452389</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W4" t="n">
-        <v>609.2899331452389</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X4" t="n">
-        <v>609.2899331452389</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y4" t="n">
-        <v>609.2899331452389</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.012869240228</v>
+        <v>828.543614500981</v>
       </c>
       <c r="D5" t="n">
-        <v>1344.747170633477</v>
+        <v>470.2779158942305</v>
       </c>
       <c r="E5" t="n">
-        <v>958.958918035233</v>
+        <v>84.48966329598633</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2700.47971701252</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1584.105971505514</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>462.5336528533173</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452395</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>320.1870662708831</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979148</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>971.2814123723974</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E8" t="n">
-        <v>971.2814123723974</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.382677567399</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>507.4345062145379</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>218.0173361775773</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>218.0173361775773</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,58 +5017,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2567.280686761779</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>2854.440648734749</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1097.958364892466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1332.172021309389</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.448174698413</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.889218672183</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0966395286528</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399322</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3658.217393399322</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4210.127123638609</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4633.750273133677</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>658.7722159733504</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>510.8591223909573</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>363.9691748930469</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>665.5244698858705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>517.6113763034774</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>370.721428805567</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2411.187623003223</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2411.187623003223</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.586158026164</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
         <v>631.7012443408905</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1642.612280691864</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1353.195110654903</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1695.154629184233</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1405.737459147272</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.747908249255</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.9553291057244</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7017074173494109</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.62759525031595</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>25.74504007796169</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>4.982661438910554</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>98.55338150863665</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>38.36786441186848</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
-        <v>13.28686650065939</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>85.77246603528386</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>30.95754073885467</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
-        <v>140.4465591824923</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
-        <v>41.433280572771</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620608.5488928123</v>
+        <v>620608.5488928125</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620608.5488928125</v>
+        <v>620608.5488928123</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26432,7 +26432,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26441,7 +26441,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26453,7 +26453,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287554</v>
+        <v>-709233.6605287547</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.0851988366</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988376</v>
+        <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>364565.0240868519</v>
+        <v>364217.644832495</v>
       </c>
       <c r="F6" t="n">
-        <v>689977.4858942073</v>
+        <v>689630.1066398498</v>
       </c>
       <c r="G6" t="n">
-        <v>689977.4858942069</v>
+        <v>689630.1066398503</v>
       </c>
       <c r="H6" t="n">
-        <v>689977.4858942071</v>
+        <v>689630.1066398501</v>
       </c>
       <c r="I6" t="n">
-        <v>689977.485894207</v>
+        <v>689630.1066398501</v>
       </c>
       <c r="J6" t="n">
-        <v>472446.2834969295</v>
+        <v>472098.9042425728</v>
       </c>
       <c r="K6" t="n">
-        <v>689977.485894207</v>
+        <v>689630.1066398502</v>
       </c>
       <c r="L6" t="n">
-        <v>689977.485894207</v>
+        <v>689630.1066398501</v>
       </c>
       <c r="M6" t="n">
-        <v>604922.4579586954</v>
+        <v>604575.0787043382</v>
       </c>
       <c r="N6" t="n">
-        <v>689977.485894207</v>
+        <v>689630.1066398502</v>
       </c>
       <c r="O6" t="n">
-        <v>689977.4858942071</v>
+        <v>689630.1066398502</v>
       </c>
       <c r="P6" t="n">
-        <v>689977.4858942071</v>
+        <v>689630.1066398503</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>222.9250743103417</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>306.4732379112255</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.7781983994217</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>16.84412522327547</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270.4601319683923</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>69.06034866652959</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>48.40916263079018</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9994429835153653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>258.2608625745994</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>290.3129182374928</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>38.07056488597461</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.59448580415483</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>432.194601571483</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181832</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,13 +33499,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34210,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>290.0605676494646</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.8925903961649</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3979569.058576599</v>
+        <v>3981329.588879385</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>104.448487742229</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482809</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>72.0880274467719</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.12741312164625</v>
+        <v>40.1274131216467</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>100.2063103874222</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>238.1138357058008</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>120.6088074159607</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>55.52079624060384</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>922.5820433455035</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>511.5961385558959</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4476,40 +4476,40 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
         <v>848.0708164780106</v>
@@ -4546,28 +4546,28 @@
         <v>1197.506131441393</v>
       </c>
       <c r="C5" t="n">
-        <v>828.543614500981</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D5" t="n">
-        <v>470.2779158942305</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E5" t="n">
-        <v>84.48966329598633</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,22 +4576,22 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
         <v>3285.073081082255</v>
@@ -4603,7 +4603,7 @@
         <v>3031.542604356091</v>
       </c>
       <c r="V5" t="n">
-        <v>2700.47971701252</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W5" t="n">
         <v>2347.711061742406</v>
@@ -4612,7 +4612,7 @@
         <v>1974.245303481326</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.105971505514</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.4698357812242</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>462.5336528533173</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4764,13 +4764,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812242</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y7" t="n">
-        <v>631.4698357812242</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179753</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E8" t="n">
-        <v>599.325099419731</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301235</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G8" t="n">
         <v>66.5121164321834</v>
@@ -4804,7 +4804,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="9">
@@ -5038,52 +5038,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5178,25 +5178,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5308,19 +5308,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5506,37 +5506,37 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,7 +5591,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,7 +5603,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5664,10 +5664,10 @@
         <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,13 +6062,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6077,10 +6077,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6299,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6363,34 +6363,34 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,13 +6551,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6618,16 +6618,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,28 +6700,28 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,7 +6776,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6785,10 +6785,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6928,37 +6928,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,7 +7013,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,13 +7025,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,13 +7247,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
         <v>577.3880777468471</v>
@@ -7262,10 +7262,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7490,16 +7490,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>25.74504007796169</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642829</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642828</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900059</v>
@@ -26334,28 +26334,28 @@
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26438,10 +26438,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189208</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26453,7 +26453,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287547</v>
+        <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988366</v>
+        <v>619511.0851988374</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.085198837</v>
+        <v>619511.0851988371</v>
       </c>
       <c r="E6" t="n">
-        <v>364217.644832495</v>
+        <v>364530.2861614162</v>
       </c>
       <c r="F6" t="n">
-        <v>689630.1066398498</v>
+        <v>689942.7479687711</v>
       </c>
       <c r="G6" t="n">
-        <v>689630.1066398503</v>
+        <v>689942.7479687718</v>
       </c>
       <c r="H6" t="n">
-        <v>689630.1066398501</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="I6" t="n">
-        <v>689630.1066398501</v>
+        <v>689942.7479687715</v>
       </c>
       <c r="J6" t="n">
-        <v>472098.9042425728</v>
+        <v>472411.545571494</v>
       </c>
       <c r="K6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="L6" t="n">
-        <v>689630.1066398501</v>
+        <v>689942.7479687716</v>
       </c>
       <c r="M6" t="n">
-        <v>604575.0787043382</v>
+        <v>604887.7200332596</v>
       </c>
       <c r="N6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687717</v>
       </c>
       <c r="O6" t="n">
-        <v>689630.1066398502</v>
+        <v>689942.7479687714</v>
       </c>
       <c r="P6" t="n">
-        <v>689630.1066398503</v>
+        <v>689942.7479687714</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>306.4732379112245</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.84412522327547</v>
+        <v>16.84412522327416</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>69.06034866652959</v>
+        <v>69.06034866652914</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>48.40916263079018</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>48.40916263079018</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>290.3129182374928</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770852</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663289</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543366</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,25 +33262,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>154.5219885631805</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593844</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>353.1300748477959</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543365</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937518</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>35.9785935799776</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>20.54758114885028</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795102</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>35.97859357997754</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
